--- a/excel_data/test_format_template.xlsx
+++ b/excel_data/test_format_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELKOM\project_ai\code\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELKOM\project_ai\code\generate_template\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD1567A-58D2-45CD-9E0E-2F5C7694D65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F915AE08-7AB1-4D58-B4DA-12476B18D85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{927C6E2E-CC48-4398-8EB6-FA8FC6A4910D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Unqualified</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Profesional berpengalaman lebih dari 13 tahun di PT Telkom Indonesia, dengan posisi terakhir sebagai Deputy Executive General Manager Digital Product. Memiliki keahlian kuat dalam Strategic Management, Business Transformation, dan Innovation Management, serta terbukti mampu mengembangkan strategi bisnis yang visioner dan komprehensif. Berkontribusi signifikan dalam mendorong kapabilitas organisasi dan mengarahkan transformasi digital, dengan fokus pada peningkatan layanan pelanggan dan kemitraan strategis.</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,6 +241,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -263,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B322D99-446A-4F4A-92FD-907C544FA2E2}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,15 +628,16 @@
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="72.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" customWidth="1"/>
+    <col min="6" max="6" width="43.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="72.77734375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,26 +647,29 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -659,21 +680,24 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -684,21 +708,24 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -709,21 +736,24 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -734,17 +764,20 @@
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
